--- a/ML/Issues.xlsx
+++ b/ML/Issues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0612544\Documents\Projects\Quality\ShinyDashboards\RNC_Dashboard\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7489281-D0DC-4A4C-9F30-1ADD1C99AB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA64312C-8337-408A-962C-97027C2D2AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32505" yWindow="4230" windowWidth="21600" windowHeight="11400" activeTab="3" xr2:uid="{0E00C396-8C74-410F-BB07-A2966A36A92B}"/>
+    <workbookView xWindow="705" yWindow="660" windowWidth="21600" windowHeight="11400" activeTab="7" xr2:uid="{0E00C396-8C74-410F-BB07-A2966A36A92B}"/>
   </bookViews>
   <sheets>
     <sheet name="Z1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>Issue</t>
   </si>
@@ -123,9 +123,6 @@
     <t>RFC 169938</t>
   </si>
   <si>
-    <t>70123/70125</t>
-  </si>
-  <si>
     <t>Strap with fasteners not per dwg. Due access</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>RFC</t>
   </si>
   <si>
-    <t>Q 4442</t>
-  </si>
-  <si>
     <t>Q 4412</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Bubbles on Velcro installation.</t>
   </si>
   <si>
-    <t>Q 4397</t>
-  </si>
-  <si>
     <t>Missing Fillet Seal Operation Book GX820903080</t>
   </si>
   <si>
@@ -298,6 +289,36 @@
   </si>
   <si>
     <t>Mislocated holes at bracket assy LP system</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Q 4923</t>
+  </si>
+  <si>
+    <t>Q 4116</t>
+  </si>
+  <si>
+    <t>q 5255/PCR</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Q 4141</t>
+  </si>
+  <si>
+    <t>Q 1224</t>
+  </si>
+  <si>
+    <t>Q 4781</t>
+  </si>
+  <si>
+    <t>31-Dic</t>
   </si>
 </sst>
 </file>
@@ -327,12 +348,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -371,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -383,6 +410,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +730,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,15 +787,15 @@
         <v>23</v>
       </c>
       <c r="E3" s="4">
-        <v>44421</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -789,7 +818,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,8 +859,8 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
+      <c r="E2">
+        <v>70123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,16 +868,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>70120</v>
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,16 +885,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>70120</v>
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -887,10 +916,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -913,7 +942,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -951,7 +980,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -960,15 +989,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -977,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -985,7 +1014,7 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -994,15 +1023,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7">
         <v>70132</v>
       </c>
     </row>
@@ -1011,15 +1040,15 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="4">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7">
         <v>44435</v>
       </c>
     </row>
@@ -1028,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1036,7 +1065,7 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1045,16 +1074,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4">
-        <v>44400</v>
+        <v>82</v>
+      </c>
+      <c r="E8" s="7">
+        <v>70127</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,16 +1091,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4">
-        <v>44390</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1087,8 +1116,8 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
+      <c r="E10" s="7">
+        <v>70151</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,24 +1125,24 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4">
-        <v>44407</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="7">
+        <v>70150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1121,7 +1150,7 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1135,8 +1164,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,16 +1195,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>70113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1199,16 +1228,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1217,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1234,13 +1263,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1251,13 +1280,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>70115</v>
@@ -1267,17 +1296,17 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>70107</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1302,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1319,13 +1348,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1336,24 +1365,24 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>70115</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1373,10 +1402,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F57449-4BE3-48F4-9108-D2D3C3051B95}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1413,7 @@
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,63 +1430,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>70130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1468,64 +1497,67 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>70124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1548,7 +1580,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,8 +1704,8 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
+      <c r="E7">
+        <v>70124</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1712,10 +1744,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1735,18 +1767,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD410D1-FBEB-4103-B2C3-A148C3671B0A}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1763,46 +1796,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1810,84 +1840,90 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>70115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>70110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E6">
+        <v>70120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1895,16 +1931,16 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1916,12 +1952,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1943,8 +1979,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1985,10 +2021,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2011,7 +2047,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -2058,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2075,16 +2111,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2092,13 +2128,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4">
         <v>44407</v>
@@ -2109,13 +2145,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>70115</v>
@@ -2123,10 +2159,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
